--- a/PLANTILLA_VACIA_PROVEEDOR.xlsx
+++ b/PLANTILLA_VACIA_PROVEEDOR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,11 @@
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>MEDIDA MÁXIMA DE GRABACIÓN</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>URL_IMAGEN</t>
         </is>
       </c>
     </row>
@@ -526,6 +531,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -543,6 +549,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -560,6 +567,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -577,6 +585,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -594,6 +603,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -611,6 +621,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -628,6 +639,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -645,6 +657,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -662,6 +675,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -679,6 +693,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
